--- a/Cowin Bottom Up approach.xlsx
+++ b/Cowin Bottom Up approach.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arunita.000\Desktop\FDBMS project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arunita.000\Desktop\CowinCretificateNormalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F60B77-12ED-4961-9165-94BC9398DEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D095E83-CEDA-4352-A298-F36DF71EFEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E9630B55-07F2-4A03-A5CF-B83818D495FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E9630B55-07F2-4A03-A5CF-B83818D495FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference form" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="96">
   <si>
     <t>Beneficiary Name</t>
   </si>
@@ -275,57 +275,6 @@
   </si>
   <si>
     <t>vaccination, date_place</t>
-  </si>
-  <si>
-    <r>
-      <t>CREATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ROLE 'dba', 'vaccine_admin', 'beneficiary';</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GRANT ALL ON vaccineCert.* TO 'dba'; </t>
-  </si>
-  <si>
-    <t>GRANT SELECT ON vaccineCert.* TO 'beneficiary';</t>
-  </si>
-  <si>
-    <t>GRANT SELECT, INSERT, UPDATE ON vaccineCert.beneficiary TO 'beneficiary';</t>
-  </si>
-  <si>
-    <t>GRANT SELECT, INSERT, UPDATE ON vaccineCert.vaccination TO 'vaccine_admin';</t>
-  </si>
-  <si>
-    <t>GRANT SELECT, INSERT, UPDATE ON vaccineCert.date_place TO 'vaccine_admin';</t>
-  </si>
-  <si>
-    <r>
-      <t>GRANT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'dba' TO 'joshi'@'localhost'; </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GRANT 'beneficiary' TO 'athiya'@'localhost'; </t>
-  </si>
-  <si>
-    <t>GRANT  'vaccine_admin' TO 'ravneet'@'localhost';</t>
   </si>
   <si>
     <t>There are no dependencies on non key attributes, hence the above form satisfies 3rd normal form</t>
@@ -1556,12 +1505,39 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1574,50 +1550,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3818,237 +3767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1FB821-BB80-43EA-A3D5-75EC3AEFB2D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1242060" y="1615440"/>
-          <a:ext cx="3116580" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Role creation</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CREATE ROLE 'dba', 'vaccine_admin', 'beneficiary';</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCEEE290-CE76-41FD-AFAE-1622C6EE7C09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8069580" y="1577340"/>
-          <a:ext cx="3337560" cy="891540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" b="1"/>
-            <a:t>Grant Roles to users</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>GRANT 'dba' TO 'joshi'@'localhost'; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-IN">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>GRANT 'beneficiary' TO 'athiya'@'localhost'; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-IN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>GRANT  'vaccine_admin' TO 'ravneet'@'localhost';</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4063,8 +3790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="2476500"/>
-          <a:ext cx="5036820" cy="1463040"/>
+          <a:off x="1219200" y="3398520"/>
+          <a:ext cx="5189220" cy="1463040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4110,7 +3837,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>GRANT ALL ON vaccineCert.* TO 'dba'; </a:t>
+            <a:t>GRANT ALL ON vaccineCert.* TO 'joshi'@'localhost'; </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN">
@@ -4133,7 +3860,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>GRANT SELECT ON vaccineCert.* TO 'beneficiary';</a:t>
+            <a:t>GRANT SELECT ON vaccineCert.* TO 'athiya'@'localhost';</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN">
@@ -4156,7 +3883,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>GRANT INSERT, UPDATE ON vaccineCert.beneficiary TO 'beneficiary';</a:t>
+            <a:t>GRANT INSERT, UPDATE ON vaccineCert.beneficiary TO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'athiya'@'localhost'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN">
@@ -4179,7 +3930,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>GRANT SELECT, INSERT, UPDATE ON vaccineCert.vaccination TO 'vaccine_admin';</a:t>
+            <a:t>GRANT SELECT, INSERT, UPDATE ON vaccineCert.vaccination TO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'ravneet'@'localhost'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN">
@@ -4202,7 +3977,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>GRANT SELECT, INSERT, UPDATE ON vaccineCert.date_place TO 'vaccine_admin';</a:t>
+            <a:t>GRANT SELECT, INSERT, UPDATE ON vaccineCert.date_place TO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'ravneet'@'localhost'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN">
@@ -4219,14 +4018,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4242,7 +4041,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="4130040"/>
+          <a:off x="1234440" y="1752600"/>
           <a:ext cx="4457700" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4723,7 +4522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4322E4F-13EA-4A1E-BF3D-C527C97EF413}">
   <dimension ref="A4:U162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -4737,11 +4536,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G4" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
+      <c r="G4" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -5631,97 +5430,97 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="101" t="s">
+      <c r="B60" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="102"/>
+      <c r="C60" s="99"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="89" t="s">
+      <c r="B61" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="90"/>
+      <c r="C61" s="91"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="90"/>
+      <c r="C62" s="91"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="90"/>
+      <c r="C63" s="91"/>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="21"/>
-      <c r="B64" s="103" t="s">
+      <c r="B64" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="104"/>
+      <c r="C64" s="93"/>
       <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="90"/>
+      <c r="C65" s="91"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="103" t="s">
+      <c r="B66" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="104"/>
+      <c r="C66" s="93"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="104"/>
+      <c r="C67" s="93"/>
     </row>
     <row r="68" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="89" t="s">
+      <c r="B68" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="90"/>
+      <c r="C68" s="91"/>
       <c r="F68" s="27"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="89" t="s">
+      <c r="B69" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="90"/>
+      <c r="C69" s="91"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="89" t="s">
+      <c r="B70" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="90"/>
+      <c r="C70" s="91"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="89" t="s">
+      <c r="B71" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="90"/>
+      <c r="C71" s="91"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="89" t="s">
+      <c r="B72" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="90"/>
+      <c r="C72" s="91"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="89" t="s">
+      <c r="B73" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="90"/>
+      <c r="C73" s="91"/>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="105" t="s">
+      <c r="B74" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="106"/>
+      <c r="C74" s="95"/>
     </row>
     <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
@@ -5739,103 +5538,103 @@
       <c r="E79" s="21"/>
     </row>
     <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="89" t="s">
+      <c r="C80" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="90"/>
+      <c r="D80" s="91"/>
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C81" s="89" t="s">
+      <c r="C81" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="90"/>
+      <c r="D81" s="91"/>
       <c r="E81" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F81" s="103" t="s">
+      <c r="F81" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="104"/>
+      <c r="G81" s="93"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C82" s="89" t="s">
+      <c r="C82" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D82" s="90"/>
+      <c r="D82" s="91"/>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C83" s="105" t="s">
+      <c r="C83" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="106"/>
+      <c r="D83" s="95"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C86" s="107"/>
-      <c r="D86" s="108"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="97"/>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C87" s="89" t="s">
+      <c r="C87" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="90"/>
+      <c r="D87" s="91"/>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C88" s="89" t="s">
+      <c r="C88" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="90"/>
-      <c r="F88" s="103" t="s">
+      <c r="D88" s="91"/>
+      <c r="F88" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G88" s="104"/>
+      <c r="G88" s="93"/>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C89" s="89" t="s">
+      <c r="C89" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="90"/>
+      <c r="D89" s="91"/>
       <c r="E89" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F89" s="103" t="s">
+      <c r="F89" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="104"/>
+      <c r="G89" s="93"/>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C90" s="89" t="s">
+      <c r="C90" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="90"/>
-      <c r="F90" s="103" t="s">
+      <c r="D90" s="91"/>
+      <c r="F90" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="104"/>
+      <c r="G90" s="93"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C91" s="89" t="s">
+      <c r="C91" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="90"/>
+      <c r="D91" s="91"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C92" s="89" t="s">
+      <c r="C92" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="90"/>
+      <c r="D92" s="91"/>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="105" t="s">
+      <c r="C93" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="106"/>
+      <c r="D93" s="95"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C94" s="81"/>
@@ -5885,34 +5684,34 @@
     <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="81"/>
       <c r="D104" s="81"/>
-      <c r="F104" s="95" t="s">
+      <c r="F104" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="G104" s="96"/>
+      <c r="G104" s="107"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C105" s="81"/>
       <c r="D105" s="81"/>
-      <c r="F105" s="89" t="s">
+      <c r="F105" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G105" s="90"/>
+      <c r="G105" s="91"/>
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="81"/>
       <c r="D106" s="81"/>
-      <c r="F106" s="99" t="s">
+      <c r="F106" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="G106" s="100"/>
+      <c r="G106" s="109"/>
     </row>
     <row r="107" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C107" s="81"/>
       <c r="D107" s="81"/>
-      <c r="F107" s="93" t="s">
+      <c r="F107" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="94"/>
+      <c r="G107" s="103"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C108" s="81"/>
@@ -5923,89 +5722,89 @@
       <c r="D109" s="81"/>
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C110" s="101" t="s">
+      <c r="C110" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D110" s="102"/>
-      <c r="I110" s="95" t="s">
+      <c r="D110" s="99"/>
+      <c r="I110" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="J110" s="96"/>
+      <c r="J110" s="107"/>
     </row>
     <row r="111" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="89" t="s">
+      <c r="C111" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D111" s="90"/>
-      <c r="I111" s="89" t="s">
+      <c r="D111" s="91"/>
+      <c r="I111" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="J111" s="90"/>
+      <c r="J111" s="91"/>
       <c r="L111" s="21"/>
     </row>
     <row r="112" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="89" t="s">
+      <c r="C112" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D112" s="90"/>
-      <c r="I112" s="97" t="s">
+      <c r="D112" s="91"/>
+      <c r="I112" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="J112" s="98"/>
+      <c r="J112" s="105"/>
     </row>
     <row r="113" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="89" t="s">
+      <c r="C113" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D113" s="90"/>
-      <c r="I113" s="89" t="s">
+      <c r="D113" s="91"/>
+      <c r="I113" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="J113" s="90"/>
+      <c r="J113" s="91"/>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="89" t="s">
+      <c r="C114" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="90"/>
-      <c r="I114" s="89" t="s">
+      <c r="D114" s="91"/>
+      <c r="I114" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="J114" s="90"/>
+      <c r="J114" s="91"/>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C115" s="91" t="s">
+      <c r="C115" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="D115" s="92"/>
-      <c r="I115" s="89" t="s">
+      <c r="D115" s="101"/>
+      <c r="I115" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J115" s="90"/>
+      <c r="J115" s="91"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C116" s="86"/>
       <c r="D116" s="86"/>
-      <c r="I116" s="89" t="s">
+      <c r="I116" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J116" s="90"/>
+      <c r="J116" s="91"/>
     </row>
     <row r="117" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C117" s="81"/>
       <c r="D117" s="81"/>
-      <c r="I117" s="91" t="s">
+      <c r="I117" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="J117" s="92"/>
+      <c r="J117" s="101"/>
     </row>
     <row r="118" spans="1:21" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C118" s="81"/>
       <c r="D118" s="81"/>
-      <c r="I118" s="93" t="s">
+      <c r="I118" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="J118" s="94"/>
+      <c r="J118" s="103"/>
     </row>
     <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="81"/>
@@ -6022,7 +5821,7 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C125" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
@@ -6084,40 +5883,40 @@
     <row r="129" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C129" s="81"/>
       <c r="D129" s="81"/>
-      <c r="F129" s="95" t="s">
+      <c r="F129" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="G129" s="96"/>
+      <c r="G129" s="107"/>
       <c r="L129" s="29"/>
       <c r="U129" s="21"/>
     </row>
     <row r="130" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C130" s="81"/>
       <c r="D130" s="81"/>
-      <c r="F130" s="89" t="s">
+      <c r="F130" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G130" s="90"/>
+      <c r="G130" s="91"/>
       <c r="L130" s="29"/>
       <c r="U130" s="21"/>
     </row>
     <row r="131" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C131" s="81"/>
       <c r="D131" s="81"/>
-      <c r="F131" s="99" t="s">
+      <c r="F131" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="G131" s="100"/>
+      <c r="G131" s="109"/>
       <c r="L131" s="21"/>
       <c r="U131" s="21"/>
     </row>
     <row r="132" spans="2:21" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C132" s="81"/>
       <c r="D132" s="81"/>
-      <c r="F132" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="G132" s="94"/>
+      <c r="F132" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="G132" s="103"/>
       <c r="L132" s="21"/>
       <c r="U132" s="21"/>
     </row>
@@ -6135,97 +5934,97 @@
     </row>
     <row r="135" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B135" s="27"/>
-      <c r="C135" s="101" t="s">
+      <c r="C135" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D135" s="102"/>
-      <c r="I135" s="95" t="s">
+      <c r="D135" s="99"/>
+      <c r="I135" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="J135" s="96"/>
+      <c r="J135" s="107"/>
       <c r="L135" s="21"/>
     </row>
     <row r="136" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B136" s="29"/>
-      <c r="C136" s="89" t="s">
+      <c r="C136" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D136" s="90"/>
-      <c r="I136" s="89" t="s">
+      <c r="D136" s="91"/>
+      <c r="I136" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="J136" s="90"/>
+      <c r="J136" s="91"/>
     </row>
     <row r="137" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B137" s="21"/>
-      <c r="C137" s="89" t="s">
+      <c r="C137" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D137" s="90"/>
-      <c r="I137" s="97" t="s">
+      <c r="D137" s="91"/>
+      <c r="I137" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="J137" s="98"/>
+      <c r="J137" s="105"/>
     </row>
     <row r="138" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B138" s="21"/>
-      <c r="C138" s="89" t="s">
+      <c r="C138" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="90"/>
-      <c r="I138" s="89" t="s">
+      <c r="D138" s="91"/>
+      <c r="I138" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="J138" s="90"/>
+      <c r="J138" s="91"/>
     </row>
     <row r="139" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B139" s="21"/>
-      <c r="C139" s="89" t="s">
+      <c r="C139" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D139" s="90"/>
-      <c r="I139" s="89" t="s">
+      <c r="D139" s="91"/>
+      <c r="I139" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="J139" s="90"/>
+      <c r="J139" s="91"/>
     </row>
     <row r="140" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B140" s="21"/>
-      <c r="C140" s="91" t="s">
+      <c r="C140" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="D140" s="92"/>
-      <c r="I140" s="89" t="s">
+      <c r="D140" s="101"/>
+      <c r="I140" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J140" s="90"/>
+      <c r="J140" s="91"/>
     </row>
     <row r="141" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B141" s="21"/>
       <c r="C141" s="86"/>
       <c r="D141" s="86"/>
-      <c r="I141" s="89" t="s">
+      <c r="I141" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J141" s="90"/>
+      <c r="J141" s="91"/>
     </row>
     <row r="142" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B142" s="21"/>
       <c r="C142" s="81"/>
       <c r="D142" s="81"/>
-      <c r="I142" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="J142" s="92"/>
+      <c r="I142" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="J142" s="101"/>
     </row>
     <row r="143" spans="2:21" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="21"/>
       <c r="C143" s="81"/>
       <c r="D143" s="81"/>
-      <c r="I143" s="93" t="s">
+      <c r="I143" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="J143" s="94"/>
+      <c r="J143" s="103"/>
     </row>
     <row r="144" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B144" s="21"/>
@@ -6260,39 +6059,39 @@
       <c r="B147" s="21"/>
       <c r="C147" s="81"/>
       <c r="D147" s="81"/>
-      <c r="F147" s="95" t="s">
+      <c r="F147" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="G147" s="96"/>
+      <c r="G147" s="107"/>
       <c r="K147" s="21"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B148" s="21"/>
       <c r="C148" s="81"/>
       <c r="D148" s="81"/>
-      <c r="F148" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="G148" s="90"/>
+      <c r="F148" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="G148" s="91"/>
       <c r="K148" s="21"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B149" s="21"/>
       <c r="C149" s="81"/>
       <c r="D149" s="81"/>
-      <c r="F149" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="G149" s="100"/>
+      <c r="F149" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="G149" s="109"/>
     </row>
     <row r="150" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B150" s="21"/>
       <c r="C150" s="81"/>
       <c r="D150" s="81"/>
-      <c r="F150" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="G150" s="94"/>
+      <c r="F150" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="G150" s="103"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B151" s="21"/>
@@ -6306,92 +6105,92 @@
     </row>
     <row r="153" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="21"/>
-      <c r="C153" s="101" t="s">
+      <c r="C153" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D153" s="102"/>
-      <c r="I153" s="95" t="s">
+      <c r="D153" s="99"/>
+      <c r="I153" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="J153" s="96"/>
+      <c r="J153" s="107"/>
     </row>
     <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="21"/>
-      <c r="C154" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="D154" s="90"/>
-      <c r="I154" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="J154" s="90"/>
+      <c r="C154" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" s="91"/>
+      <c r="I154" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="J154" s="91"/>
     </row>
     <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="21"/>
-      <c r="C155" s="89" t="s">
+      <c r="C155" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D155" s="90"/>
-      <c r="I155" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="J155" s="98"/>
+      <c r="D155" s="91"/>
+      <c r="I155" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="J155" s="105"/>
     </row>
     <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="21"/>
-      <c r="C156" s="89" t="s">
+      <c r="C156" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D156" s="90"/>
-      <c r="I156" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="J156" s="90"/>
+      <c r="D156" s="91"/>
+      <c r="I156" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="J156" s="91"/>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B157" s="21"/>
-      <c r="C157" s="89" t="s">
+      <c r="C157" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="D157" s="91"/>
+      <c r="I157" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="J157" s="91"/>
+    </row>
+    <row r="158" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C158" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D158" s="101"/>
+      <c r="I158" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="D157" s="90"/>
-      <c r="I157" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="J157" s="90"/>
-    </row>
-    <row r="158" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C158" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="D158" s="92"/>
-      <c r="I158" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="J158" s="90"/>
+      <c r="J158" s="91"/>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C159" s="86"/>
       <c r="D159" s="86"/>
-      <c r="I159" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="J159" s="90"/>
+      <c r="I159" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="J159" s="91"/>
     </row>
     <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C160" s="81"/>
       <c r="D160" s="81"/>
-      <c r="I160" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="J160" s="92"/>
+      <c r="I160" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="J160" s="101"/>
     </row>
     <row r="161" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C161" s="81"/>
       <c r="D161" s="81"/>
-      <c r="I161" s="93" t="s">
+      <c r="I161" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="J161" s="94"/>
+      <c r="J161" s="103"/>
       <c r="K161" s="21"/>
       <c r="L161" s="21"/>
       <c r="M161" s="21"/>
@@ -6404,6 +6203,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="I143:J143"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
@@ -6420,79 +6292,6 @@
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="I142:J142"/>
-    <mergeCell ref="I143:J143"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="I158:J158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6501,10 +6300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826F9A75-884D-4B15-B659-2067B7FAC85E}">
-  <dimension ref="C2:H21"/>
+  <dimension ref="C2:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6608,47 +6407,11 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
+      <c r="C9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
+      <c r="C17" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
